--- a/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>DRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23100</v>
+        <v>569000</v>
       </c>
       <c r="E8" s="3">
-        <v>22500</v>
+        <v>820000</v>
       </c>
       <c r="F8" s="3">
+        <v>634000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>627000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>612000</v>
+      </c>
+      <c r="I8" s="3">
         <v>31800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>32000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>28300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>25200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>23300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15100</v>
+        <v>438000</v>
       </c>
       <c r="E9" s="3">
-        <v>15200</v>
+        <v>636000</v>
       </c>
       <c r="F9" s="3">
+        <v>504000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>478000</v>
+      </c>
+      <c r="I9" s="3">
         <v>18700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>18700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>17000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>15300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>14300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8000</v>
+        <v>131000</v>
       </c>
       <c r="E10" s="3">
-        <v>7300</v>
+        <v>184000</v>
       </c>
       <c r="F10" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>127000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>134000</v>
+      </c>
+      <c r="I10" s="3">
         <v>13100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>13300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>9000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +850,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +920,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,37 +958,55 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +1015,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>26100</v>
+        <v>544000</v>
       </c>
       <c r="E17" s="3">
-        <v>23400</v>
+        <v>733000</v>
       </c>
       <c r="F17" s="3">
+        <v>258000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>585000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>556000</v>
+      </c>
+      <c r="I17" s="3">
         <v>25700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>25700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>23800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>21700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-3000</v>
+        <v>25000</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>87000</v>
       </c>
       <c r="F18" s="3">
+        <v>376000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>56000</v>
+      </c>
+      <c r="I18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,54 +1107,66 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>393000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>58000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>71000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1067,95 +1177,131 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3500</v>
+        <v>16000</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>78000</v>
       </c>
       <c r="F23" s="3">
+        <v>367000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>88000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>900</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1329,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4400</v>
+        <v>12000</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>65000</v>
       </c>
       <c r="F26" s="3">
+        <v>279000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4400</v>
+        <v>12000</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>65000</v>
       </c>
       <c r="F27" s="3">
+        <v>279000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1443,55 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1557,93 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4400</v>
+        <v>12000</v>
       </c>
       <c r="E33" s="3">
-        <v>-700</v>
+        <v>65000</v>
       </c>
       <c r="F33" s="3">
+        <v>279000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>3800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1671,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4400</v>
+        <v>12000</v>
       </c>
       <c r="E35" s="3">
-        <v>-700</v>
+        <v>65000</v>
       </c>
       <c r="F35" s="3">
+        <v>279000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>3800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1790,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55700</v>
+        <v>174000</v>
       </c>
       <c r="E41" s="3">
-        <v>65900</v>
+        <v>306000</v>
       </c>
       <c r="F41" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>69000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>113000</v>
+      </c>
+      <c r="I41" s="3">
         <v>78700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>86600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>95700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>96200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,211 +1860,283 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31900</v>
+        <v>1126000</v>
       </c>
       <c r="E43" s="3">
-        <v>35900</v>
+        <v>1038000</v>
       </c>
       <c r="F43" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>999000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>953000</v>
+      </c>
+      <c r="I43" s="3">
         <v>35600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>31600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>21600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>16800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64900</v>
+        <v>364000</v>
       </c>
       <c r="E44" s="3">
-        <v>59300</v>
+        <v>319000</v>
       </c>
       <c r="F44" s="3">
+        <v>246000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>249000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>231000</v>
+      </c>
+      <c r="I44" s="3">
         <v>48900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>38100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>31600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>26900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>28800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>48000</v>
       </c>
       <c r="E45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>220000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>220000</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>153100</v>
+        <v>1712000</v>
       </c>
       <c r="E46" s="3">
-        <v>161600</v>
+        <v>1707000</v>
       </c>
       <c r="F46" s="3">
+        <v>1431000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="I46" s="3">
         <v>163700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>156800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>149400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>140500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>82100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3200</v>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I47" s="3">
         <v>3200</v>
       </c>
       <c r="J47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35100</v>
+        <v>402000</v>
       </c>
       <c r="E48" s="3">
-        <v>34200</v>
+        <v>404000</v>
       </c>
       <c r="F48" s="3">
+        <v>362000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>363000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>367000</v>
+      </c>
+      <c r="I48" s="3">
         <v>31200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>29000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>28400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>25900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>24500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1403000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1408000</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>997000</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>999000</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1004000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2202,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>164000</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>158000</v>
       </c>
       <c r="F52" s="3">
+        <v>141000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2278,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>196600</v>
+        <v>3681000</v>
       </c>
       <c r="E54" s="3">
-        <v>205800</v>
+        <v>3677000</v>
       </c>
       <c r="F54" s="3">
+        <v>2931000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3043000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3033000</v>
+      </c>
+      <c r="I54" s="3">
         <v>203800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>194900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>187100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>169700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>106900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,141 +2354,180 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26000</v>
+        <v>258000</v>
       </c>
       <c r="E57" s="3">
-        <v>31700</v>
+        <v>457000</v>
       </c>
       <c r="F57" s="3">
+        <v>285000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>291000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>248000</v>
+      </c>
+      <c r="I57" s="3">
         <v>33300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>30100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>26400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>17800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
+      <c r="D58" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>29000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>67000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>186000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
+        <v>511000</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
+        <v>556000</v>
       </c>
       <c r="F59" s="3">
+        <v>560000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>480000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>489000</v>
+      </c>
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30600</v>
+        <v>1019000</v>
       </c>
       <c r="E60" s="3">
-        <v>36400</v>
+        <v>1042000</v>
       </c>
       <c r="F60" s="3">
+        <v>912000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>911000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>923000</v>
+      </c>
+      <c r="I60" s="3">
         <v>37800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>33800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>33200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>27600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>25400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>365000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>354000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2110,37 +2538,55 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13200</v>
+        <v>159000</v>
       </c>
       <c r="E62" s="3">
-        <v>13100</v>
+        <v>143000</v>
       </c>
       <c r="F62" s="3">
-        <v>9900</v>
+        <v>131000</v>
       </c>
       <c r="G62" s="3">
-        <v>10600</v>
+        <v>124000</v>
       </c>
       <c r="H62" s="3">
-        <v>10400</v>
+        <v>121000</v>
       </c>
       <c r="I62" s="3">
         <v>9900</v>
       </c>
       <c r="J62" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M62" s="3">
         <v>9500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2690,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43800</v>
+        <v>1538000</v>
       </c>
       <c r="E66" s="3">
-        <v>49500</v>
+        <v>1550000</v>
       </c>
       <c r="F66" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="I66" s="3">
         <v>47800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>44400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>43600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>37500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>34900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2820,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2896,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-53400</v>
+        <v>-2962000</v>
       </c>
       <c r="E72" s="3">
-        <v>-49000</v>
+        <v>-2974000</v>
       </c>
       <c r="F72" s="3">
+        <v>-3039000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2922000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2947000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-48300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-53100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-59100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-69600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-73400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +3048,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>152800</v>
+        <v>2143000</v>
       </c>
       <c r="E76" s="3">
-        <v>156200</v>
+        <v>2127000</v>
       </c>
       <c r="F76" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="I76" s="3">
         <v>156100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>150400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>143500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>132200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>72000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +3124,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4400</v>
+        <v>12000</v>
       </c>
       <c r="E81" s="3">
-        <v>-700</v>
+        <v>65000</v>
       </c>
       <c r="F81" s="3">
+        <v>279000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>3800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3227,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3449,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-334000</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>279000</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-255000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3509,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -2879,8 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3617,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-14000</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-9000</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-13000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3823,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>216000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-472000</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-48000</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>141000</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3899,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-132000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>243000</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-44000</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-127000</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E8" s="3">
         <v>569000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>820000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>634000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>627000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>612000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E9" s="3">
         <v>438000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>636000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>504000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>478000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>18700</v>
       </c>
       <c r="J9" s="3">
         <v>18700</v>
       </c>
       <c r="K9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L9" s="3">
         <v>17000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E10" s="3">
         <v>131000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>184000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>130000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>127000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>134000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,26 +887,29 @@
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="3">
-        <v>2500</v>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="3">
         <v>2500</v>
       </c>
       <c r="K12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="3">
         <v>2600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2400</v>
       </c>
       <c r="M12" s="3">
         <v>2400</v>
       </c>
       <c r="N12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,34 +987,37 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3000</v>
       </c>
       <c r="F15" s="3">
         <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
+      <c r="I15" s="3">
+        <v>2000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E17" s="3">
         <v>544000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>733000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>258000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>585000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>556000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>25700</v>
       </c>
       <c r="J17" s="3">
         <v>25700</v>
       </c>
       <c r="K17" s="3">
+        <v>25700</v>
+      </c>
+      <c r="L17" s="3">
         <v>23800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E18" s="3">
         <v>25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>87000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>376000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>56000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,20 +1143,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1131,45 +1165,48 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E21" s="3">
         <v>46000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>102000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>393000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>58000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>71000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1186,34 +1223,37 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1224,75 +1264,81 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E23" s="3">
         <v>16000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>78000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>367000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>88000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>16</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>279000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>279000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,20 +1539,23 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,20 +1633,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1587,63 +1657,69 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>279000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>279000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E41" s="3">
         <v>174000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>306000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>113000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,110 +1959,119 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1126000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1038000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1083000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>999000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>953000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E44" s="3">
         <v>364000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>319000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>246000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>249000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>231000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>38100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E45" s="3">
         <v>48000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>220000</v>
       </c>
       <c r="H45" s="3">
         <v>220000</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>220000</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
@@ -1983,46 +2082,52 @@
       <c r="N45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1712000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1707000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1431000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1537000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1517000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>156800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>82100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,26 +2146,29 @@
       <c r="H47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3200</v>
       </c>
       <c r="L47" s="3">
         <v>3200</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,63 +2176,66 @@
         <v>402000</v>
       </c>
       <c r="E48" s="3">
+        <v>402000</v>
+      </c>
+      <c r="F48" s="3">
         <v>404000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>362000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>363000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>367000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1403000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1408000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>997000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>999000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1004000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,37 +2328,40 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E52" s="3">
         <v>164000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>158000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>144000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>145000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3662000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3681000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3677000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2931000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3043000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3033000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>203800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>194900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>187100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>169700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,67 +2487,71 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E57" s="3">
         <v>258000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>457000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>285000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>291000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>248000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E58" s="3">
         <v>250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>67000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>140000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>186000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -2428,110 +2562,119 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E59" s="3">
         <v>511000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>556000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>560000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>480000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>489000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1019000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1042000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>912000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>911000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>923000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>37800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E61" s="3">
         <v>360000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>365000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>350000</v>
       </c>
       <c r="G61" s="3">
         <v>350000</v>
       </c>
       <c r="H61" s="3">
+        <v>350000</v>
+      </c>
+      <c r="I61" s="3">
         <v>354000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,46 +2690,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E62" s="3">
         <v>159000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>131000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1538000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1550000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1393000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1385000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1398000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2927000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2962000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2974000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3039000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2922000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2947000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2143000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2127000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1538000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1658000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1635000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>150400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>143500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>279000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,34 +3428,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="3">
         <v>22000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>17000</v>
       </c>
       <c r="F83" s="3">
         <v>17000</v>
       </c>
       <c r="G83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H83" s="3">
         <v>16000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,34 +3672,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-334000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>279000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-255000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,29 +3732,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,34 +3853,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>470000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,34 +4075,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E100" s="3">
         <v>216000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-472000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>141000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,34 +4157,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-132000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>243000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-127000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>DRS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E8" s="3">
         <v>628000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>569000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>820000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>634000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>627000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>612000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E9" s="3">
         <v>483000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>438000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>636000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>504000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>478000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>18700</v>
       </c>
       <c r="K9" s="3">
         <v>18700</v>
       </c>
       <c r="L9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="M9" s="3">
         <v>17000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E10" s="3">
         <v>145000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>131000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>184000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>130000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>127000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>134000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,26 +904,29 @@
       <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="3">
-        <v>2500</v>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
       </c>
       <c r="L12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M12" s="3">
         <v>2600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2400</v>
       </c>
       <c r="N12" s="3">
         <v>2400</v>
       </c>
       <c r="O12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,28 +1022,28 @@
         <v>5000</v>
       </c>
       <c r="E15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="3">
         <v>6000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3000</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
       <c r="H15" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>16</v>
+      <c r="J15" s="3">
+        <v>2000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E17" s="3">
         <v>586000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>544000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>733000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>258000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>585000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>556000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>25700</v>
       </c>
       <c r="K17" s="3">
         <v>25700</v>
       </c>
       <c r="L17" s="3">
+        <v>25700</v>
+      </c>
+      <c r="M17" s="3">
         <v>23800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E18" s="3">
         <v>42000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>87000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>376000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>56000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,23 +1177,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1168,48 +1202,51 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E21" s="3">
         <v>62000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>102000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>393000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>58000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1226,37 +1263,40 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1267,81 +1307,87 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E23" s="3">
         <v>33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>78000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>367000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>48000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>88000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>16</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E26" s="3">
         <v>35000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>279000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E27" s="3">
         <v>35000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>279000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1542,20 +1603,23 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,23 +1703,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1660,66 +1730,72 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="3">
         <v>35000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>279000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E35" s="3">
         <v>35000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>279000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E41" s="3">
         <v>35000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>306000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>113000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,119 +2052,128 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1216000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1126000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1038000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1083000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>999000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>953000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E44" s="3">
         <v>378000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>364000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>319000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>246000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>249000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>231000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E45" s="3">
         <v>68000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>220000</v>
       </c>
       <c r="I45" s="3">
         <v>220000</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>220000</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
@@ -2085,49 +2184,55 @@
       <c r="O45" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1740000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1697000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1712000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1707000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1431000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1537000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1517000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>156800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>140500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>82100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2149,96 +2254,102 @@
       <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>3200</v>
       </c>
       <c r="M47" s="3">
         <v>3200</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>3200</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>402000</v>
+        <v>399000</v>
       </c>
       <c r="E48" s="3">
         <v>402000</v>
       </c>
       <c r="F48" s="3">
+        <v>402000</v>
+      </c>
+      <c r="G48" s="3">
         <v>404000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>362000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>363000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>367000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1397000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1403000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1408000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>997000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>999000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1004000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,40 +2448,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E52" s="3">
         <v>166000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>164000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>158000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>144000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3713000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3662000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3681000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3677000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2931000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3043000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3033000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>203800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>187100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>169700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,73 +2618,77 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E57" s="3">
         <v>290000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>258000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>457000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>285000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>291000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>248000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E58" s="3">
         <v>136000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>250000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>140000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>186000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -2565,119 +2699,128 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E59" s="3">
         <v>517000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>511000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>556000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>560000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>480000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>489000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>951000</v>
+      </c>
+      <c r="E60" s="3">
         <v>943000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1019000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1042000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>912000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>911000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>923000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E61" s="3">
         <v>357000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>360000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>365000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>350000</v>
       </c>
       <c r="H61" s="3">
         <v>350000</v>
       </c>
       <c r="I61" s="3">
+        <v>350000</v>
+      </c>
+      <c r="J61" s="3">
         <v>354000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2693,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E62" s="3">
         <v>173000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>159000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>143000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>121000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1471000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1473000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1538000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1550000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1393000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1385000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1398000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2880000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2927000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2962000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2974000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3039000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2922000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2947000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2189000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2143000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1538000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1658000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1635000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>150400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>143500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E81" s="3">
         <v>35000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>279000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,37 +3627,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E83" s="3">
         <v>20000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>17000</v>
       </c>
       <c r="G83" s="3">
         <v>17000</v>
       </c>
       <c r="H83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I83" s="3">
         <v>16000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,37 +3889,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-334000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>279000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-255000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,29 +3953,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-13000</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,37 +4083,40 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>470000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,37 +4321,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>216000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-472000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>141000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,37 +4409,40 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-139000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-132000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>243000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-127000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
